--- a/doc/支持文件/馨品数据字典.xlsx
+++ b/doc/支持文件/馨品数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="267">
   <si>
     <t>用户表</t>
   </si>
@@ -966,12 +966,40 @@
     <t>需要做再建</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,6 +1058,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1074,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,6 +1151,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1384,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -1402,7 +1444,7 @@
     <col min="16384" max="16384" width="12.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1452,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1">
+    <row r="3" spans="1:6" ht="21" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1444,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1">
+    <row r="4" spans="1:6" ht="21" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1461,7 +1503,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1">
+    <row r="5" spans="1:6" ht="21" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1520,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1">
+    <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>232</v>
       </c>
@@ -1493,253 +1535,254 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" ht="21" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:6" ht="21" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
     <row r="21" spans="1:5" ht="21" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="21" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
@@ -1751,114 +1794,116 @@
         <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E26" s="4" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E33" s="4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>30</v>
@@ -1868,187 +1913,185 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>167</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="21" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="21" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="21" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>167</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="21" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>167</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="21" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="21" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="21" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>7</v>
@@ -2056,222 +2099,224 @@
       <c r="C48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E48" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="21" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="21" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21" customHeight="1">
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:6" ht="21" customHeight="1">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="21" customHeight="1">
-      <c r="A53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="21" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="21" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E55" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="21" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C56" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="21" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="21" customHeight="1">
-      <c r="A57" s="6" t="s">
+    <row r="58" spans="1:6" ht="21" customHeight="1">
+      <c r="A58" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="21" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="21" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="21" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E63" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="21" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="21" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>109</v>
@@ -2281,25 +2326,27 @@
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="21" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="21" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>114</v>
@@ -2307,209 +2354,205 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="21" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>255</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="21" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="21" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="21" customHeight="1">
-      <c r="A70" s="6" t="s">
+    <row r="71" spans="1:5" ht="21" customHeight="1">
+      <c r="A71" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="21" customHeight="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="73" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A73" s="1" t="s">
+      <c r="E71" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21" customHeight="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="21" customHeight="1">
-      <c r="A75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="21" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="21" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E77" s="4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="21" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="21" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="21" customHeight="1">
-      <c r="A82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="21" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="21" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>18</v>
@@ -2518,15 +2561,15 @@
         <v>14</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="21" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>18</v>
@@ -2535,161 +2578,163 @@
         <v>14</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="21" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E86" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="21" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="21" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="21" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="21" customHeight="1">
+      <c r="A90" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A92" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="21" customHeight="1">
-      <c r="A93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="21" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="21" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D95" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="21" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="21" customHeight="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="21" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>7</v>
@@ -2699,151 +2744,156 @@
         <v>14</v>
       </c>
       <c r="E97" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="21" customHeight="1">
+      <c r="A98" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="21" customHeight="1">
+      <c r="A99" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="21" customHeight="1">
-      <c r="A98" s="4" t="s">
+    <row r="100" spans="1:6" ht="21" customHeight="1">
+      <c r="A100" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="21" customHeight="1">
-      <c r="A99" s="4" t="s">
+    <row r="101" spans="1:6" ht="21" customHeight="1">
+      <c r="A101" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4" t="s">
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="21" customHeight="1">
-      <c r="A100" s="4" t="s">
+    <row r="102" spans="1:6" ht="21" customHeight="1">
+      <c r="A102" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4" t="s">
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A102" s="1" t="s">
+    <row r="104" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A104" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A103" s="2" t="s">
+    <row r="105" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A105" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="21" customHeight="1">
-      <c r="A104" s="4" t="s">
+    <row r="106" spans="1:6" ht="21" customHeight="1">
+      <c r="A106" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="21" customHeight="1">
-      <c r="A105" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="21" customHeight="1">
-      <c r="A106" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="C106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E106" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="21" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="21" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C107" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="21" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="21" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="21" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="21" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>164</v>
@@ -2851,12 +2901,12 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="21" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="21" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>164</v>
@@ -2864,12 +2914,12 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="21" customHeight="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="21" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>164</v>
@@ -2877,12 +2927,12 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="21" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="21" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>164</v>
@@ -2890,92 +2940,88 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="21" customHeight="1">
+      <c r="A113" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="21" customHeight="1">
+      <c r="A114" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A116" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A115" s="2" t="s">
+    <row r="117" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A117" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="21" customHeight="1">
-      <c r="A116" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="21" customHeight="1">
-      <c r="A117" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="21" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E118" s="4" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="21" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>7</v>
@@ -2985,217 +3031,221 @@
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="21" customHeight="1">
+      <c r="A120" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="21" customHeight="1">
+      <c r="A121" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="1" t="s">
+    <row r="122" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A123" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="2" t="s">
+    <row r="124" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A124" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="21" customHeight="1">
-      <c r="A123" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="21" customHeight="1">
-      <c r="A124" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="21" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E125" s="4" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="21" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E126" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="21" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="21" customHeight="1">
+      <c r="A128" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="21" customHeight="1">
+      <c r="A129" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="21" customHeight="1">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-    </row>
-    <row r="129" spans="1:5" ht="21" customHeight="1">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:5" ht="21" customHeight="1">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="1:5" ht="21" customHeight="1">
+      <c r="A131" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:5" ht="21" customHeight="1">
-      <c r="A130" s="2" t="s">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" ht="21" customHeight="1">
+      <c r="A132" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="21" customHeight="1">
-      <c r="A131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="21" customHeight="1">
-      <c r="A132" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="21" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E133" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="21" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C134" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="21" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>129</v>
@@ -3203,12 +3253,12 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="21" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>129</v>
@@ -3216,12 +3266,12 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="21" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>129</v>
@@ -3229,12 +3279,12 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="21" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>129</v>
@@ -3242,12 +3292,12 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="21" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>129</v>
@@ -3255,12 +3305,12 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="21" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>129</v>
@@ -3268,370 +3318,366 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="21" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="21" customHeight="1">
+      <c r="A142" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="21" customHeight="1">
+      <c r="A143" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="21" customHeight="1">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-    </row>
-    <row r="143" spans="1:5" ht="21" customHeight="1">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:5" ht="21" customHeight="1">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="1:5" ht="21" customHeight="1">
+      <c r="A145" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:5" ht="21" customHeight="1">
-      <c r="A144" s="2" t="s">
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" ht="21" customHeight="1">
+      <c r="A146" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E146" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="21" customHeight="1">
-      <c r="A145" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="21" customHeight="1">
-      <c r="A146" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="21" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E147" s="4" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="21" customHeight="1">
       <c r="A148" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D148" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E148" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="21" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="21" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="21" customHeight="1">
+      <c r="A151" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="21" customHeight="1">
+      <c r="A152" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="21" customHeight="1">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-    </row>
-    <row r="152" spans="1:5" ht="21" customHeight="1">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-    </row>
     <row r="153" spans="1:5" ht="21" customHeight="1">
-      <c r="C153" s="5" t="s">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="1:5" ht="21" customHeight="1">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="1:5" ht="21" customHeight="1">
+      <c r="C155" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A154" s="13" t="s">
+    <row r="156" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A156" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-    </row>
-    <row r="155" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A155" s="8" t="s">
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+    </row>
+    <row r="157" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A157" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B157" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A156" s="9" t="s">
+    <row r="158" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A158" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B158" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C158" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D158" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E156" s="9" t="s">
+      <c r="E158" s="9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A157" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A158" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A159" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D159" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E159" s="11" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A160" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A161" s="11" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A162" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C162" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A163" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A164" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
-    <row r="164" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A164" s="8" t="s">
+    <row r="165" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
+    <row r="166" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A166" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B166" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A165" s="9" t="s">
+    <row r="167" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A167" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B167" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C167" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D167" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="E167" s="9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A166" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A167" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A168" s="11" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E168" s="11" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A169" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>48</v>
@@ -3641,68 +3687,98 @@
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A170" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A171" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
-    <row r="171" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A171" s="8" t="s">
+    <row r="172" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
+    <row r="173" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A173" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B173" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A172" s="9" t="s">
+    <row r="174" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A174" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B174" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C174" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D174" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="9" t="s">
+      <c r="E174" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A173" s="11" t="s">
+    <row r="175" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A175" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B175" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C175" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11" t="s">
+      <c r="D175" s="11"/>
+      <c r="E175" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A174" s="11" t="s">
+    <row r="176" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A176" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B176" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C176" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11" t="s">
+      <c r="D176" s="11"/>
+      <c r="E176" s="11" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A156:E156"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/doc/支持文件/馨品数据字典.xlsx
+++ b/doc/支持文件/馨品数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="276">
   <si>
     <t>用户表</t>
   </si>
@@ -992,6 +992,42 @@
   </si>
   <si>
     <t>school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已绑定(0：未  1：已)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,13 +1186,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1426,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -1536,20 +1575,20 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2748,18 +2787,18 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="21" customHeight="1">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14" t="s">
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F98" s="14" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2864,49 +2903,54 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="21" customHeight="1">
-      <c r="A107" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4" t="s">
-        <v>216</v>
+      <c r="A107" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="21" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="4"/>
+      <c r="C108" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="21" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="21" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>164</v>
@@ -2914,12 +2958,12 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="21" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>164</v>
@@ -2927,12 +2971,12 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="21" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>164</v>
@@ -2940,12 +2984,12 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="21" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>164</v>
@@ -2953,12 +2997,12 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="21" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>164</v>
@@ -2966,92 +3010,93 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="21" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:6" ht="21" customHeight="1">
+      <c r="A116" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A118" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A117" s="2" t="s">
+    <row r="119" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="21" customHeight="1">
-      <c r="A118" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="21" customHeight="1">
-      <c r="A119" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="21" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E120" s="4" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="21" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>7</v>
@@ -3061,217 +3106,221 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="21" customHeight="1">
+      <c r="A122" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="21" customHeight="1">
+      <c r="A123" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A123" s="1" t="s">
+    <row r="124" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A125" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A124" s="2" t="s">
+    <row r="126" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A126" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="21" customHeight="1">
-      <c r="A125" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="21" customHeight="1">
-      <c r="A126" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="21" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E127" s="4" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="21" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E128" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="21" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="21" customHeight="1">
+      <c r="A130" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="21" customHeight="1">
+      <c r="A131" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="21" customHeight="1">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-    </row>
-    <row r="131" spans="1:5" ht="21" customHeight="1">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:5" ht="21" customHeight="1">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="1:5" ht="21" customHeight="1">
+      <c r="A133" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:5" ht="21" customHeight="1">
-      <c r="A132" s="2" t="s">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" ht="21" customHeight="1">
+      <c r="A134" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="21" customHeight="1">
-      <c r="A133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="21" customHeight="1">
-      <c r="A134" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="21" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E135" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="21" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C136" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="21" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>129</v>
@@ -3279,12 +3328,12 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="21" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>129</v>
@@ -3292,12 +3341,12 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="21" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>129</v>
@@ -3305,12 +3354,12 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="21" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>129</v>
@@ -3318,12 +3367,12 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="21" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>129</v>
@@ -3331,12 +3380,12 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="21" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>129</v>
@@ -3344,370 +3393,366 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="21" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="21" customHeight="1">
+      <c r="A144" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="21" customHeight="1">
+      <c r="A145" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="21" customHeight="1">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-    </row>
-    <row r="145" spans="1:5" ht="21" customHeight="1">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:5" ht="21" customHeight="1">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="1:5" ht="21" customHeight="1">
+      <c r="A147" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="1:5" ht="21" customHeight="1">
-      <c r="A146" s="2" t="s">
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" ht="21" customHeight="1">
+      <c r="A148" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="21" customHeight="1">
-      <c r="A147" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="21" customHeight="1">
-      <c r="A148" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="21" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E149" s="4" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="21" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D150" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E150" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="21" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="21" customHeight="1">
       <c r="A152" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="21" customHeight="1">
+      <c r="A153" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="21" customHeight="1">
+      <c r="A154" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="21" customHeight="1">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-    </row>
-    <row r="154" spans="1:5" ht="21" customHeight="1">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-    </row>
     <row r="155" spans="1:5" ht="21" customHeight="1">
-      <c r="C155" s="5" t="s">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="1:5" ht="21" customHeight="1">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="1:5" ht="21" customHeight="1">
+      <c r="C157" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A156" s="13" t="s">
+    <row r="158" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A158" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B156" s="13"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-    </row>
-    <row r="157" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A157" s="8" t="s">
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+    </row>
+    <row r="159" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A159" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B159" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A158" s="9" t="s">
+    <row r="160" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A160" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B160" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C160" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D160" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E160" s="9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A159" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A160" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A161" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D161" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E161" s="11" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A162" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A163" s="11" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="11"/>
       <c r="E163" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A164" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C164" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A165" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A166" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
-    <row r="166" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A166" s="8" t="s">
+    <row r="167" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
+    <row r="168" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A168" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B168" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A167" s="9" t="s">
+    <row r="169" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A169" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B169" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C169" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D169" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E169" s="9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A168" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A169" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A170" s="11" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D170" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E170" s="11" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A171" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>48</v>
@@ -3717,68 +3762,98 @@
       </c>
       <c r="D171" s="11"/>
       <c r="E171" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A172" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A173" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
-    <row r="173" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A173" s="8" t="s">
+    <row r="174" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
+    <row r="175" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A175" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B175" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A174" s="9" t="s">
+    <row r="176" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A176" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B176" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C176" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D176" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E174" s="9" t="s">
+      <c r="E176" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A175" s="11" t="s">
+    <row r="177" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A177" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B177" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C177" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11" t="s">
+      <c r="D177" s="11"/>
+      <c r="E177" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A176" s="11" t="s">
+    <row r="178" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A178" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B178" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C178" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11" t="s">
+      <c r="D178" s="11"/>
+      <c r="E178" s="11" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A158:E158"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/doc/支持文件/馨品数据字典.xlsx
+++ b/doc/支持文件/馨品数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="281">
   <si>
     <t>用户表</t>
   </si>
@@ -823,7 +823,155 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工单编号（时间+序号）</t>
+    <t>binding_statu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否绑定经销商 0：未绑定 1：已绑定(默认0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组绑定表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_users</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_flow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_consume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_vendors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_leaevl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_devices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_filters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_devices_statu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_crew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_binding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_loglist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_device_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_device_config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_auth_rule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_auth_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_auth_group_access</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号、非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要做再建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -831,31 +979,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>binding_statu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否绑定经销商 0：未绑定 1：已绑定(默认0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组绑定表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已绑定(0：未  1：已)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -867,107 +1015,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_users</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_flow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_consume</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_vendors</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_leaevl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_devices</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_filters</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_devices_statu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_work</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_crew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_binding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_loglist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_device_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_device_config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_auth_rule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_auth_group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_auth_group_access</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无符号、非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要做再建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校</t>
+    <t>机组名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -975,11 +1027,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
+    <t>varchar(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -991,43 +1039,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>school</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已绑定(0：未  1：已)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
+    <t>工单编号（时间+机组ID）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改字段类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1192,10 +1212,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1467,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -1488,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -1561,35 +1581,35 @@
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
       <c r="A7" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
@@ -1668,7 +1688,7 @@
         <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -1676,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -1779,7 +1799,7 @@
         <v>171</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1903,7 +1923,7 @@
         <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2091,7 +2111,7 @@
         <v>182</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2186,7 +2206,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2257,10 +2277,10 @@
     </row>
     <row r="57" spans="1:6" ht="21" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2270,7 +2290,7 @@
     </row>
     <row r="58" spans="1:6" ht="21" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>20</v>
@@ -2278,7 +2298,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
@@ -2286,7 +2306,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2417,7 +2437,7 @@
         <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
@@ -2462,7 +2482,7 @@
         <v>57</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2544,15 +2564,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
@@ -2569,7 +2589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="21" customHeight="1">
+    <row r="83" spans="1:6" ht="21" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>6</v>
       </c>
@@ -2586,12 +2606,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="21" customHeight="1">
+    <row r="84" spans="1:6" ht="21" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>7</v>
+      <c r="B84" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>18</v>
@@ -2600,10 +2620,13 @@
         <v>14</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="21" customHeight="1">
+        <v>278</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="21" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>185</v>
       </c>
@@ -2620,7 +2643,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="21" customHeight="1">
+    <row r="86" spans="1:6" ht="21" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>188</v>
       </c>
@@ -2637,7 +2660,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="21" customHeight="1">
+    <row r="87" spans="1:6" ht="21" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>190</v>
       </c>
@@ -2652,22 +2675,25 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="21" customHeight="1">
-      <c r="A88" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" s="4" t="s">
+    <row r="88" spans="1:6" ht="21" customHeight="1">
+      <c r="A88" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="21" customHeight="1">
+      <c r="D88" s="13"/>
+      <c r="E88" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="21" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>193</v>
       </c>
@@ -2682,12 +2708,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="21" customHeight="1">
+    <row r="90" spans="1:6" ht="21" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>164</v>
+      <c r="B90" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>18</v>
@@ -2696,16 +2722,19 @@
       <c r="E90" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="F90" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -2722,7 +2751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="21" customHeight="1">
+    <row r="94" spans="1:6" ht="21" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>6</v>
       </c>
@@ -2739,7 +2768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="21" customHeight="1">
+    <row r="95" spans="1:6" ht="21" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>197</v>
       </c>
@@ -2756,7 +2785,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="21" customHeight="1">
+    <row r="96" spans="1:6" ht="21" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>185</v>
       </c>
@@ -2788,7 +2817,7 @@
     </row>
     <row r="98" spans="1:6" ht="21" customHeight="1">
       <c r="A98" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>174</v>
@@ -2796,10 +2825,10 @@
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="21" customHeight="1">
@@ -2865,7 +2894,7 @@
         <v>207</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2904,20 +2933,20 @@
     </row>
     <row r="107" spans="1:6" ht="21" customHeight="1">
       <c r="A107" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>273</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="21" customHeight="1">
@@ -3027,21 +3056,21 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="21" customHeight="1">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B116" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16" t="s">
-        <v>270</v>
-      </c>
       <c r="F116" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
@@ -3054,10 +3083,10 @@
     </row>
     <row r="118" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -3106,12 +3135,12 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="21" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>7</v>
@@ -3121,7 +3150,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="21" customHeight="1">
@@ -3152,7 +3181,7 @@
         <v>63</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -3191,7 +3220,7 @@
     </row>
     <row r="128" spans="1:6" ht="21" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>7</v>
@@ -3263,7 +3292,7 @@
         <v>125</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3447,7 +3476,7 @@
         <v>141</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3580,24 +3609,24 @@
     </row>
     <row r="157" spans="1:5" ht="21" customHeight="1">
       <c r="C157" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
     </row>
     <row r="159" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A159" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
@@ -3713,7 +3742,7 @@
         <v>82</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
@@ -3801,7 +3830,7 @@
         <v>87</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">

--- a/doc/支持文件/馨品数据字典.xlsx
+++ b/doc/支持文件/馨品数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="283">
   <si>
     <t>用户表</t>
   </si>
@@ -734,320 +734,328 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>学籍号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC卡ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC卡类型(0：免费 1：计费)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态(0：未绑定 1：已绑定 2：挂失)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>did1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>did2</t>
+  </si>
+  <si>
+    <t>did3</t>
+  </si>
+  <si>
+    <t>did4</t>
+  </si>
+  <si>
+    <t>did5</t>
+  </si>
+  <si>
+    <t>did6</t>
+  </si>
+  <si>
+    <t>did7</t>
+  </si>
+  <si>
+    <t>did8</t>
+  </si>
+  <si>
+    <t>一设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>binding_statu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否绑定经销商 0：未绑定 1：已绑定(默认0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组绑定表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_users</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_flow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_consume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_vendors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_leaevl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_devices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_filters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_devices_statu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_crew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_binding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_loglist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_device_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_device_config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_auth_rule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_auth_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_auth_group_access</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号、非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要做再建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已绑定(0：未  1：已)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单编号（时间+机组ID）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改字段类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改字段类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>studentcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学籍号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>icid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC卡ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC卡类型(0：免费 1：计费)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态(0：未绑定 1：已绑定 2：挂失)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>did1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>did2</t>
-  </si>
-  <si>
-    <t>did3</t>
-  </si>
-  <si>
-    <t>did4</t>
-  </si>
-  <si>
-    <t>did5</t>
-  </si>
-  <si>
-    <t>did6</t>
-  </si>
-  <si>
-    <t>did7</t>
-  </si>
-  <si>
-    <t>did8</t>
-  </si>
-  <si>
-    <t>一设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>六设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>七设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>binding_statu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否绑定经销商 0：未绑定 1：已绑定(默认0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组绑定表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_users</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_flow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_consume</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_vendors</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_leaevl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_devices</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_filters</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_devices_statu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_work</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_crew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_binding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_loglist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_device_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_device_config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_auth_rule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_auth_group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_auth_group_access</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无符号、非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要做再建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>school</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已绑定(0：未  1：已)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单编号（时间+机组ID）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改字段类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1488,7 +1496,7 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -1508,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -1581,35 +1589,35 @@
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
       <c r="A7" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
@@ -1688,7 +1696,7 @@
         <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -1696,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -1799,7 +1807,7 @@
         <v>171</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1858,7 +1866,7 @@
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
@@ -1870,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1">
@@ -1923,7 +1931,7 @@
         <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2111,7 +2119,7 @@
         <v>182</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2206,7 +2214,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2277,10 +2285,10 @@
     </row>
     <row r="57" spans="1:6" ht="21" customHeight="1">
       <c r="A57" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2290,7 +2298,7 @@
     </row>
     <row r="58" spans="1:6" ht="21" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>20</v>
@@ -2298,7 +2306,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
@@ -2306,7 +2314,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2437,7 +2445,7 @@
         <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
@@ -2482,7 +2490,7 @@
         <v>57</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2569,7 +2577,7 @@
         <v>183</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2611,7 +2619,7 @@
         <v>184</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>18</v>
@@ -2620,10 +2628,10 @@
         <v>14</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="21" customHeight="1">
@@ -2677,20 +2685,20 @@
     </row>
     <row r="88" spans="1:6" ht="21" customHeight="1">
       <c r="A88" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F88" s="14" t="s">
         <v>276</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="21" customHeight="1">
@@ -2713,7 +2721,7 @@
         <v>169</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>18</v>
@@ -2723,7 +2731,7 @@
         <v>195</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
@@ -2731,7 +2739,7 @@
         <v>196</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2772,8 +2780,8 @@
       <c r="A95" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>7</v>
+      <c r="B95" s="13" t="s">
+        <v>280</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>18</v>
@@ -2783,6 +2791,9 @@
       </c>
       <c r="E95" s="4" t="s">
         <v>198</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="21" customHeight="1">
@@ -2802,7 +2813,7 @@
     </row>
     <row r="97" spans="1:6" ht="21" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>7</v>
@@ -2812,12 +2823,12 @@
         <v>14</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="21" customHeight="1">
       <c r="A98" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>174</v>
@@ -2825,10 +2836,10 @@
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="21" customHeight="1">
@@ -2860,7 +2871,7 @@
         <v>14</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="21" customHeight="1">
@@ -2873,7 +2884,7 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="21" customHeight="1">
@@ -2886,15 +2897,15 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2933,25 +2944,25 @@
     </row>
     <row r="107" spans="1:6" ht="21" customHeight="1">
       <c r="A107" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="C107" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F107" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="21" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>7</v>
@@ -2961,12 +2972,12 @@
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="21" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>7</v>
@@ -2974,12 +2985,12 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="21" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>164</v>
@@ -2987,12 +2998,12 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="21" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>164</v>
@@ -3000,12 +3011,12 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="21" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>164</v>
@@ -3013,12 +3024,12 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="21" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>164</v>
@@ -3026,12 +3037,12 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="21" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>164</v>
@@ -3039,12 +3050,12 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="21" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>164</v>
@@ -3052,25 +3063,25 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="21" customHeight="1">
       <c r="A116" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B116" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B116" s="15" t="s">
-        <v>267</v>
-      </c>
       <c r="C116" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
@@ -3083,10 +3094,10 @@
     </row>
     <row r="118" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -3135,12 +3146,12 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="21" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>7</v>
@@ -3150,7 +3161,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="21" customHeight="1">
@@ -3181,7 +3192,7 @@
         <v>63</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -3220,7 +3231,7 @@
     </row>
     <row r="128" spans="1:6" ht="21" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>7</v>
@@ -3292,7 +3303,7 @@
         <v>125</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3476,7 +3487,7 @@
         <v>141</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3609,7 +3620,7 @@
     </row>
     <row r="157" spans="1:5" ht="21" customHeight="1">
       <c r="C157" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
@@ -3626,7 +3637,7 @@
         <v>71</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
@@ -3742,7 +3753,7 @@
         <v>82</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
@@ -3830,7 +3841,7 @@
         <v>87</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">

--- a/doc/支持文件/馨品数据字典.xlsx
+++ b/doc/支持文件/馨品数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="294">
   <si>
     <t>用户表</t>
   </si>
@@ -762,10 +762,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>did1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>did2</t>
   </si>
   <si>
@@ -787,7 +783,271 @@
     <t>did8</t>
   </si>
   <si>
-    <t>一设备ID</t>
+    <t>三设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>binding_statu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否绑定经销商 0：未绑定 1：已绑定(默认0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组绑定表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_users</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_flow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_consume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_vendors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_leaevl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_devices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_filters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_devices_statu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_crew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_binding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_loglist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_device_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_device_config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_auth_rule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_auth_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp_auth_group_access</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无符号、非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要做再建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已绑定(0：未  1：已)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单编号（时间+机组ID）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改字段类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改字段类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -795,59 +1055,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>三设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>六设备ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>七设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八设备ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>binding_statu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否绑定经销商 0：未绑定 1：已绑定(默认0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组绑定表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
+    <t>删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改字段及字段类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -855,207 +1095,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_users</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_flow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_consume</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_vendors</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_leaevl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_devices</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_filters</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_devices_statu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_work</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_crew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_binding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_loglist</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_device_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_device_config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_auth_rule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_auth_group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xp_auth_group_access</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无符号、非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要做再建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
+    <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>school</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已绑定(0：未  1：已)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单编号（时间+机组ID）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改字段类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改字段类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentcode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1063,7 +1107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,6 +1174,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1174,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,6 +1273,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1493,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -1516,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -1589,35 +1647,35 @@
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
@@ -1696,7 +1754,7 @@
         <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -1704,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -1807,7 +1865,7 @@
         <v>171</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1931,7 +1989,7 @@
         <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2119,7 +2177,7 @@
         <v>182</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2214,7 +2272,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2285,10 +2343,10 @@
     </row>
     <row r="57" spans="1:6" ht="21" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2298,7 +2356,7 @@
     </row>
     <row r="58" spans="1:6" ht="21" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>20</v>
@@ -2306,7 +2364,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
@@ -2314,7 +2372,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2445,7 +2503,7 @@
         <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
@@ -2490,7 +2548,7 @@
         <v>57</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2577,7 +2635,7 @@
         <v>183</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
@@ -2619,7 +2677,7 @@
         <v>184</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>18</v>
@@ -2628,10 +2686,10 @@
         <v>14</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="21" customHeight="1">
@@ -2652,521 +2710,533 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="21" customHeight="1">
-      <c r="A86" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C86" s="4" t="s">
+      <c r="A86" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>189</v>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="21" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E87" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="21" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="21" customHeight="1">
-      <c r="A88" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C88" s="13" t="s">
+    <row r="89" spans="1:6" ht="21" customHeight="1">
+      <c r="A89" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="21" customHeight="1">
-      <c r="A89" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4" t="s">
-        <v>194</v>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="21" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>278</v>
+        <v>193</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="21" customHeight="1">
+      <c r="A91" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F90" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A92" s="1" t="s">
+      <c r="F91" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A93" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A93" s="2" t="s">
+      <c r="B93" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A94" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="21" customHeight="1">
-      <c r="A94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="21" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>280</v>
+        <v>6</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>281</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="21" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C96" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="21" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="21" customHeight="1">
+      <c r="A98" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="21" customHeight="1">
-      <c r="A98" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" s="13" t="s">
+    <row r="99" spans="1:6" ht="21" customHeight="1">
+      <c r="A99" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="21" customHeight="1">
-      <c r="A99" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>154</v>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="21" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="21" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="C101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E101" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="21" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="21" customHeight="1">
+      <c r="A103" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A105" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A106" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="21" customHeight="1">
-      <c r="A106" s="4" t="s">
+    <row r="107" spans="1:6" ht="21" customHeight="1">
+      <c r="A107" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="21" customHeight="1">
-      <c r="A107" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
     <row r="108" spans="1:6" ht="21" customHeight="1">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="21" customHeight="1">
+      <c r="A109" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="A110" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B110" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4" t="s">
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="A111" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="A112" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="21" customHeight="1">
-      <c r="A109" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4" t="s">
+    <row r="113" spans="1:6" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="A113" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="21" customHeight="1">
-      <c r="A110" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4" t="s">
+    <row r="114" spans="1:6" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="A114" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="A115" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="21" customHeight="1">
-      <c r="A111" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4" t="s">
+    <row r="116" spans="1:6" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="A116" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="21" customHeight="1">
-      <c r="A112" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="21" customHeight="1">
-      <c r="A113" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="21" customHeight="1">
-      <c r="A114" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4" t="s">
+    <row r="117" spans="1:6" ht="21" customHeight="1">
+      <c r="A117" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="21" customHeight="1">
+      <c r="A118" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A120" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="21" customHeight="1">
-      <c r="A115" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="21" customHeight="1">
-      <c r="A116" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A118" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A119" s="2" t="s">
+      <c r="B120" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A121" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="21" customHeight="1">
-      <c r="A120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="21" customHeight="1">
-      <c r="A121" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="21" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E122" s="4" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="21" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>7</v>
@@ -3176,217 +3246,221 @@
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="21" customHeight="1">
+      <c r="A124" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="21" customHeight="1">
+      <c r="A125" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A127" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A126" s="2" t="s">
+      <c r="B127" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A128" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="21" customHeight="1">
-      <c r="A127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="21" customHeight="1">
-      <c r="A128" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="21" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E129" s="4" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="21" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E130" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="21" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="21" customHeight="1">
+      <c r="A132" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="21" customHeight="1">
+      <c r="A133" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="21" customHeight="1">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-    </row>
-    <row r="133" spans="1:5" ht="21" customHeight="1">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:5" ht="21" customHeight="1">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="1:5" ht="21" customHeight="1">
+      <c r="A135" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" ht="21" customHeight="1">
-      <c r="A134" s="2" t="s">
+      <c r="B135" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" ht="21" customHeight="1">
+      <c r="A136" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="21" customHeight="1">
-      <c r="A135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="21" customHeight="1">
-      <c r="A136" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="21" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E137" s="4" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="21" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C138" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="21" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>129</v>
@@ -3394,12 +3468,12 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="21" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>129</v>
@@ -3407,12 +3481,12 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="21" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>129</v>
@@ -3420,12 +3494,12 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="21" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>129</v>
@@ -3433,12 +3507,12 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="21" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>129</v>
@@ -3446,12 +3520,12 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="21" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>129</v>
@@ -3459,370 +3533,366 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="21" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="21" customHeight="1">
+      <c r="A146" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="21" customHeight="1">
+      <c r="A147" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="21" customHeight="1">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-    </row>
-    <row r="147" spans="1:5" ht="21" customHeight="1">
-      <c r="A147" s="1" t="s">
+    <row r="148" spans="1:5" ht="21" customHeight="1">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="1:5" ht="21" customHeight="1">
+      <c r="A149" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:5" ht="21" customHeight="1">
-      <c r="A148" s="2" t="s">
+      <c r="B149" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5" ht="21" customHeight="1">
+      <c r="A150" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="21" customHeight="1">
-      <c r="A149" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="21" customHeight="1">
-      <c r="A150" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="21" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E151" s="4" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="21" customHeight="1">
       <c r="A152" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D152" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E152" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="21" customHeight="1">
       <c r="A153" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="21" customHeight="1">
       <c r="A154" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="21" customHeight="1">
+      <c r="A155" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="21" customHeight="1">
+      <c r="A156" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="21" customHeight="1">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-    </row>
-    <row r="156" spans="1:5" ht="21" customHeight="1">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-    </row>
     <row r="157" spans="1:5" ht="21" customHeight="1">
-      <c r="C157" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A158" s="16" t="s">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="1:5" ht="21" customHeight="1">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="1:5" ht="21" customHeight="1">
+      <c r="C159" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A160" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16"/>
-    </row>
-    <row r="159" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A159" s="8" t="s">
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+    </row>
+    <row r="161" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A161" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A160" s="9" t="s">
+      <c r="B161" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A162" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B162" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C162" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D162" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E160" s="9" t="s">
+      <c r="E162" s="9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A161" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A162" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A163" s="11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E163" s="11" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A164" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A165" s="11" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A166" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C166" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A167" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A168" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
-    <row r="168" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A168" s="8" t="s">
+    <row r="169" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
+    <row r="170" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A170" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A169" s="9" t="s">
+      <c r="B170" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A171" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B171" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C171" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D171" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E171" s="9" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A170" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A171" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A172" s="11" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E172" s="11" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
       <c r="A173" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>48</v>
@@ -3832,68 +3902,98 @@
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A174" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A175" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
-    <row r="175" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A175" s="8" t="s">
+    <row r="176" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1"/>
+    <row r="177" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A177" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A176" s="9" t="s">
+      <c r="B177" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A178" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B178" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C178" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D178" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E176" s="9" t="s">
+      <c r="E178" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A177" s="11" t="s">
+    <row r="179" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A179" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B179" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C179" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11" t="s">
+      <c r="D179" s="11"/>
+      <c r="E179" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A178" s="11" t="s">
+    <row r="180" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
+      <c r="A180" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B180" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C180" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11" t="s">
+      <c r="D180" s="11"/>
+      <c r="E180" s="11" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A160:E160"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/doc/支持文件/馨品数据字典.xlsx
+++ b/doc/支持文件/馨品数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="294">
   <si>
     <t>用户表</t>
   </si>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="21" customHeight="1"/>
@@ -2891,8 +2891,8 @@
       <c r="A98" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>7</v>
+      <c r="B98" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
@@ -2900,6 +2900,9 @@
       </c>
       <c r="E98" s="4" t="s">
         <v>200</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="21" customHeight="1">
